--- a/Taabela de decisão.xlsx
+++ b/Taabela de decisão.xlsx
@@ -510,7 +510,7 @@
   <si>
     <t>{
     "itensPrecoTotal": 500
-    "frete": 200
+    "frete": 210
 }</t>
   </si>
   <si>
